--- a/output/top100_20260112.xlsx
+++ b/output/top100_20260112.xlsx
@@ -480,8 +480,8 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="9" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="9" customWidth="1" min="10" max="10"/>
@@ -557,36 +557,36 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>023960</t>
+          <t>484810</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>에쓰씨엔지니어링</t>
+          <t>티엑스알로보틱스</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E2" s="3" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1465</v>
+        <v>17840</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1758</v>
+        <v>21408</v>
       </c>
       <c r="H2" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>13.21</v>
+        <v>18.62</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>1038333</v>
+        <v>3042591</v>
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>BULLISH_ENGULFING</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -605,45 +605,45 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>017860</t>
+          <t>474650</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>DS단석</t>
+          <t>링크솔루션</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E3" s="3" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>19520</v>
+        <v>70600</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>23424</v>
+        <v>84720</v>
       </c>
       <c r="H3" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>13.49</v>
+        <v>10.49</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>1023695</v>
+        <v>2009423</v>
       </c>
       <c r="K3" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 하단 반등</t>
+          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
         </is>
       </c>
       <c r="L3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BULLISH_ENGULFING</t>
         </is>
       </c>
     </row>
@@ -653,12 +653,12 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>289080</t>
+          <t>122350</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>SV인베스트먼트</t>
+          <t>삼기</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -667,26 +667,26 @@
         </is>
       </c>
       <c r="E4" s="3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1861</v>
+        <v>1410</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2233</v>
+        <v>1692</v>
       </c>
       <c r="H4" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>14.17</v>
+        <v>12.08</v>
       </c>
       <c r="J4" s="3" t="n">
-        <v>3105056</v>
+        <v>7603346</v>
       </c>
       <c r="K4" s="3" t="inlineStr">
         <is>
-          <t>MACD 히스토그램 상승 | 스토캐스틱 과매도 골든 | 상승추세</t>
+          <t>골든크로스(5/20) | MACD 골든크로스 | MACD 히스토그램 양전환</t>
         </is>
       </c>
       <c r="L4" s="3" t="inlineStr">
@@ -701,40 +701,40 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>122350</t>
+          <t>017860</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>삼기</t>
+          <t>DS단석</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E5" s="3" t="n">
         <v>94</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1383</v>
+        <v>19260</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1659</v>
+        <v>23112</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>9.94</v>
+        <v>11.98</v>
       </c>
       <c r="J5" s="3" t="n">
-        <v>7330425</v>
+        <v>1081389</v>
       </c>
       <c r="K5" s="3" t="inlineStr">
         <is>
-          <t>골든크로스(5/20) | MACD 골든크로스 | MACD 히스토그램 양전환</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 하단 반등</t>
         </is>
       </c>
       <c r="L5" s="3" t="inlineStr">
@@ -749,40 +749,40 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>241560</t>
+          <t>289080</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>두산밥캣</t>
+          <t>SV인베스트먼트</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E6" s="3" t="n">
         <v>92</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>62300</v>
+        <v>1898</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>74760</v>
+        <v>2277</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.880000000000001</v>
+        <v>16.44</v>
       </c>
       <c r="J6" s="3" t="n">
-        <v>691027</v>
+        <v>3214910</v>
       </c>
       <c r="K6" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
+          <t>MACD 히스토그램 상승 | 볼린저 상단 돌파 | 스토캐스틱 과매도 골든</t>
         </is>
       </c>
       <c r="L6" s="3" t="inlineStr">
@@ -797,45 +797,45 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>079810</t>
+          <t>241560</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>디이엔티</t>
+          <t>두산밥캣</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E7" s="3" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>4755</v>
+        <v>62900</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>5706</v>
+        <v>75480</v>
       </c>
       <c r="H7" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>2.26</v>
+        <v>10.93</v>
       </c>
       <c r="J7" s="3" t="n">
-        <v>219930</v>
+        <v>782923</v>
       </c>
       <c r="K7" s="3" t="inlineStr">
         <is>
-          <t>RSI 과매도 | MACD 히스토그램 상승 | 볼린저 하단 반등</t>
+          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
         </is>
       </c>
       <c r="L7" s="3" t="inlineStr">
         <is>
-          <t>BULLISH_ENGULFING</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -845,40 +845,40 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>474650</t>
+          <t>004170</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>링크솔루션</t>
+          <t>신세계</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E8" s="3" t="n">
         <v>90</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>67000</v>
+        <v>268500</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>80400</v>
+        <v>322200</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>4.85</v>
+        <v>3.07</v>
       </c>
       <c r="J8" s="3" t="n">
-        <v>1731111</v>
+        <v>93748</v>
       </c>
       <c r="K8" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 골든크로스(5/20) | MACD 히스토그램 상승</t>
+          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
         </is>
       </c>
       <c r="L8" s="3" t="inlineStr">
@@ -910,19 +910,19 @@
         <v>88</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>24720</v>
+        <v>25200</v>
       </c>
       <c r="H9" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>12.81</v>
+        <v>15.01</v>
       </c>
       <c r="J9" s="3" t="n">
-        <v>3006366</v>
+        <v>3526282</v>
       </c>
       <c r="K9" s="3" t="inlineStr">
         <is>
@@ -958,19 +958,19 @@
         <v>88</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>6780</v>
+        <v>6820</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>8136</v>
+        <v>8184</v>
       </c>
       <c r="H10" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>2.88</v>
+        <v>3.49</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>258093</v>
+        <v>288060</v>
       </c>
       <c r="K10" s="3" t="inlineStr">
         <is>
@@ -989,40 +989,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>484810</t>
+          <t>001060</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>티엑스알로보틱스</t>
+          <t>JW중외제약</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E11" s="3" t="n">
         <v>88</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>17130</v>
+        <v>28100</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>20556</v>
+        <v>33720</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>13.9</v>
+        <v>2.74</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>2775667</v>
+        <v>75729</v>
       </c>
       <c r="K11" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 스토캐스틱 골든크로스</t>
+          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
         </is>
       </c>
       <c r="L11" s="3" t="inlineStr">
@@ -1037,40 +1037,40 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>001060</t>
+          <t>044490</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>JW중외제약</t>
+          <t>태웅</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E12" s="3" t="n">
         <v>88</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>28100</v>
+        <v>29000</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>33720</v>
+        <v>34800</v>
       </c>
       <c r="H12" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.74</v>
+        <v>8.01</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>68350</v>
+        <v>394323</v>
       </c>
       <c r="K12" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
+          <t>골든크로스(5/20) | MACD 골든크로스 | MACD 히스토그램 양전환</t>
         </is>
       </c>
       <c r="L12" s="3" t="inlineStr">
@@ -1085,45 +1085,45 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>004170</t>
+          <t>078890</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>신세계</t>
+          <t>가온그룹</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E13" s="3" t="n">
         <v>88</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>267000</v>
+        <v>6030</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>320400</v>
+        <v>7236</v>
       </c>
       <c r="H13" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>2.5</v>
+        <v>12.29</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>84956</v>
+        <v>634559</v>
       </c>
       <c r="K13" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 골든크로스(5/20) | MACD 골든크로스</t>
+          <t>이평선 정배열 | 골든크로스(5/20) | MACD 히스토그램 상승</t>
         </is>
       </c>
       <c r="L13" s="3" t="inlineStr">
         <is>
-          <t>BULLISH_ENGULFING</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1133,45 +1133,45 @@
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>067000</t>
+          <t>253450</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>조이시티</t>
+          <t>스튜디오드래곤</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSDAQ GLOBAL</t>
         </is>
       </c>
       <c r="E14" s="3" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>2390</v>
+        <v>45400</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>2868</v>
+        <v>54480</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>20.77</v>
+        <v>4.61</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>6712846</v>
+        <v>248153</v>
       </c>
       <c r="K14" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
+          <t>이평선 정배열 | 스토캐스틱 골든크로스 | 강한 상승추세</t>
         </is>
       </c>
       <c r="L14" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BULLISH_ENGULFING</t>
         </is>
       </c>
     </row>
@@ -1181,45 +1181,45 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>272290</t>
+          <t>082920</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>이녹스첨단소재</t>
+          <t>비츠로셀</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ GLOBAL</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E15" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>25200</v>
+        <v>20800</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>30240</v>
+        <v>24960</v>
       </c>
       <c r="H15" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>13.26</v>
+        <v>2.97</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>2852250</v>
+        <v>531298</v>
       </c>
       <c r="K15" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
+          <t>이평선 정배열 | MACD 골든크로스 | MACD 히스토그램 양전환</t>
         </is>
       </c>
       <c r="L15" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>DOJI</t>
         </is>
       </c>
     </row>
@@ -1229,40 +1229,40 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>214330</t>
+          <t>067000</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>금호에이치티</t>
+          <t>조이시티</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E16" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>556</v>
+        <v>2385</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>667</v>
+        <v>2862</v>
       </c>
       <c r="H16" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>7.34</v>
+        <v>20.52</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>2867918</v>
+        <v>8103149</v>
       </c>
       <c r="K16" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 강한 상승추세</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
         </is>
       </c>
       <c r="L16" s="3" t="inlineStr">
@@ -1277,40 +1277,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>044490</t>
+          <t>272290</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>태웅</t>
+          <t>이녹스첨단소재</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSDAQ GLOBAL</t>
         </is>
       </c>
       <c r="E17" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>28900</v>
+        <v>25700</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>34680</v>
+        <v>30840</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>7.64</v>
+        <v>15.51</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>333178</v>
+        <v>3151663</v>
       </c>
       <c r="K17" s="3" t="inlineStr">
         <is>
-          <t>골든크로스(5/20) | MACD 골든크로스 | MACD 히스토그램 양전환</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
         </is>
       </c>
       <c r="L17" s="3" t="inlineStr">
@@ -1325,45 +1325,45 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>253450</t>
+          <t>214330</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>스튜디오드래곤</t>
+          <t>금호에이치티</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ GLOBAL</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E18" s="3" t="n">
         <v>86</v>
       </c>
       <c r="F18" s="4" t="n">
-        <v>45650</v>
+        <v>556</v>
       </c>
       <c r="G18" s="4" t="n">
-        <v>54780</v>
+        <v>667</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.18</v>
+        <v>7.34</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>222654</v>
+        <v>2988612</v>
       </c>
       <c r="K18" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 스토캐스틱 골든크로스 | 강한 상승추세</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 강한 상승추세</t>
         </is>
       </c>
       <c r="L18" s="3" t="inlineStr">
         <is>
-          <t>BULLISH_ENGULFING</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1373,12 +1373,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>251630</t>
+          <t>085670</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>브이원텍</t>
+          <t>뉴프렉스</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -1390,23 +1390,23 @@
         <v>86</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>5970</v>
+        <v>5260</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>7164</v>
+        <v>6312</v>
       </c>
       <c r="H19" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>7.57</v>
+        <v>5.2</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>312910</v>
+        <v>595918</v>
       </c>
       <c r="K19" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | MACD 히스토그램 상승 | 볼린저 상단 돌파</t>
+          <t>이평선 정배열 | MACD 골든크로스 | MACD 히스토그램 양전환</t>
         </is>
       </c>
       <c r="L19" s="3" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>082920</t>
+          <t>060720</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>비츠로셀</t>
+          <t>KH바텍</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
@@ -1438,28 +1438,28 @@
         <v>84</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>20800</v>
+        <v>14140</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>24960</v>
+        <v>16968</v>
       </c>
       <c r="H20" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>2.97</v>
+        <v>29.96</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>488690</v>
+        <v>2788214</v>
       </c>
       <c r="K20" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | MACD 골든크로스 | MACD 히스토그램 양전환</t>
+          <t>골든크로스(5/20) | RSI 과매수 | MACD 골든크로스</t>
         </is>
       </c>
       <c r="L20" s="3" t="inlineStr">
         <is>
-          <t>DOJI</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1469,12 +1469,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>126720</t>
+          <t>023960</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>수산인더스트리</t>
+          <t>에쓰씨엔지니어링</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -1486,28 +1486,28 @@
         <v>84</v>
       </c>
       <c r="F21" s="4" t="n">
-        <v>22050</v>
+        <v>1450</v>
       </c>
       <c r="G21" s="4" t="n">
-        <v>26460</v>
+        <v>1740</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>3.04</v>
+        <v>12.06</v>
       </c>
       <c r="J21" s="3" t="n">
-        <v>84506</v>
+        <v>1121291</v>
       </c>
       <c r="K21" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 스토캐스틱 골든크로스</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
         </is>
       </c>
       <c r="L21" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BULLISH_ENGULFING</t>
         </is>
       </c>
     </row>
@@ -1517,12 +1517,12 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>060720</t>
+          <t>251630</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>KH바텍</t>
+          <t>브이원텍</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -1534,28 +1534,28 @@
         <v>84</v>
       </c>
       <c r="F22" s="4" t="n">
-        <v>14140</v>
+        <v>6110</v>
       </c>
       <c r="G22" s="4" t="n">
-        <v>16968</v>
+        <v>7332</v>
       </c>
       <c r="H22" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>29.96</v>
+        <v>10.09</v>
       </c>
       <c r="J22" s="3" t="n">
-        <v>2741620</v>
+        <v>346020</v>
       </c>
       <c r="K22" s="3" t="inlineStr">
         <is>
-          <t>골든크로스(5/20) | RSI 과매수 | MACD 골든크로스</t>
+          <t>이평선 정배열 | MACD 히스토그램 상승 | 볼린저 상단 돌파</t>
         </is>
       </c>
       <c r="L22" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BULLISH_ENGULFING</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
         <v>29.96</v>
       </c>
       <c r="J23" s="3" t="n">
-        <v>2738992</v>
+        <v>2807887</v>
       </c>
       <c r="K23" s="3" t="inlineStr">
         <is>
@@ -1613,45 +1613,45 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>011780</t>
+          <t>079810</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>금호석유화학</t>
+          <t>디이엔티</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E24" s="3" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F24" s="4" t="n">
-        <v>136300</v>
+        <v>4785</v>
       </c>
       <c r="G24" s="4" t="n">
-        <v>163560</v>
+        <v>5742</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12</v>
+        <v>2.9</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>351956</v>
+        <v>234153</v>
       </c>
       <c r="K24" s="3" t="inlineStr">
         <is>
-          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
+          <t>RSI 회복중 | MACD 히스토그램 상승 | 볼린저 하단 반등</t>
         </is>
       </c>
       <c r="L24" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BULLISH_ENGULFING</t>
         </is>
       </c>
     </row>
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>298040</t>
+          <t>011780</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>효성중공업</t>
+          <t>금호석유화학</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -1678,23 +1678,23 @@
         <v>82</v>
       </c>
       <c r="F25" s="4" t="n">
-        <v>2033000</v>
+        <v>135500</v>
       </c>
       <c r="G25" s="4" t="n">
-        <v>2439600</v>
+        <v>162600</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>7.85</v>
+        <v>11.34</v>
       </c>
       <c r="J25" s="3" t="n">
-        <v>126745</v>
+        <v>419965</v>
       </c>
       <c r="K25" s="3" t="inlineStr">
         <is>
-          <t>골든크로스(5/20) | 볼린저 상단 돌파 | CCI 과매수</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 볼린저 상단 돌파</t>
         </is>
       </c>
       <c r="L25" s="3" t="inlineStr">
@@ -1709,40 +1709,40 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>078890</t>
+          <t>126720</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>가온그룹</t>
+          <t>수산인더스트리</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>KOSDAQ</t>
+          <t>KOSPI</t>
         </is>
       </c>
       <c r="E26" s="3" t="n">
         <v>82</v>
       </c>
       <c r="F26" s="4" t="n">
-        <v>6000</v>
+        <v>22200</v>
       </c>
       <c r="G26" s="4" t="n">
-        <v>7200</v>
+        <v>26640</v>
       </c>
       <c r="H26" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>11.73</v>
+        <v>3.74</v>
       </c>
       <c r="J26" s="3" t="n">
-        <v>555799</v>
+        <v>93815</v>
       </c>
       <c r="K26" s="3" t="inlineStr">
         <is>
-          <t>이평선 정배열 | 골든크로스(5/20) | MACD 히스토그램 상승</t>
+          <t>MACD 골든크로스 | MACD 히스토그램 양전환 | 스토캐스틱 골든크로스</t>
         </is>
       </c>
       <c r="L26" s="3" t="inlineStr">
@@ -1774,19 +1774,19 @@
         <v>82</v>
       </c>
       <c r="F27" s="4" t="n">
-        <v>66000</v>
+        <v>66100</v>
       </c>
       <c r="G27" s="4" t="n">
-        <v>79200</v>
+        <v>79320</v>
       </c>
       <c r="H27" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>7.84</v>
+        <v>8.01</v>
       </c>
       <c r="J27" s="3" t="n">
-        <v>17901</v>
+        <v>19495</v>
       </c>
       <c r="K27" s="3" t="inlineStr">
         <is>
@@ -1822,19 +1822,19 @@
         <v>80</v>
       </c>
       <c r="F28" s="4" t="n">
-        <v>4890</v>
+        <v>4900</v>
       </c>
       <c r="G28" s="4" t="n">
-        <v>5868</v>
+        <v>5880</v>
       </c>
       <c r="H28" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>4.04</v>
+        <v>4.26</v>
       </c>
       <c r="J28" s="3" t="n">
-        <v>350810</v>
+        <v>387511</v>
       </c>
       <c r="K28" s="3" t="inlineStr">
         <is>
@@ -1870,19 +1870,19 @@
         <v>80</v>
       </c>
       <c r="F29" s="4" t="n">
-        <v>14140</v>
+        <v>14300</v>
       </c>
       <c r="G29" s="4" t="n">
-        <v>16968</v>
+        <v>17160</v>
       </c>
       <c r="H29" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.28</v>
+        <v>5.46</v>
       </c>
       <c r="J29" s="3" t="n">
-        <v>355287</v>
+        <v>394735</v>
       </c>
       <c r="K29" s="3" t="inlineStr">
         <is>
@@ -1901,40 +1901,40 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>036420</t>
+          <t>140670</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>콘텐트리중앙</t>
+          <t>알에스오토메이션</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>KOSPI</t>
+          <t>KOSDAQ</t>
         </is>
       </c>
       <c r="E30" s="3" t="n">
         <v>80</v>
       </c>
       <c r="F30" s="4" t="n">
-        <v>6630</v>
+        <v>17650</v>
       </c>
       <c r="G30" s="4" t="n">
-        <v>7956</v>
+        <v>21180</v>
       </c>
       <c r="H30" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.24</v>
+        <v>6.78</v>
       </c>
       <c r="J30" s="3" t="n">
-        <v>329068</v>
+        <v>1414213</v>
       </c>
       <c r="K30" s="3" t="inlineStr">
         <is>
-          <t>RSI 과매도 | 볼린저 하단 터치 | 스토캐스틱 과매도 골든</t>
+          <t>이평선 정배열 | MACD 히스토그램 상승 | 강한 상승추세</t>
         </is>
       </c>
       <c r="L30" s="3" t="inlineStr">
@@ -1949,12 +1949,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>378850</t>
+          <t>021240</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>화승알앤에이</t>
+          <t>코웨이</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -1966,23 +1966,23 @@
         <v>80</v>
       </c>
       <c r="F31" s="4" t="n">
-        <v>3310</v>
+        <v>79800</v>
       </c>
       <c r="G31" s="4" t="n">
-        <v>3972</v>
+        <v>95760</v>
       </c>
       <c r="H31" s="5" t="n">
         <v>20</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>5.75</v>
+        <v>0.25</v>
       </c>
       <c r="J31" s="3" t="n">
-        <v>433098</v>
+        <v>287037</v>
       </c>
       <c r="K31" s="3" t="inlineStr">
         <is>
-          <t>MACD 히스토그램 상승 | 볼린저 하단 반등 | 스토캐스틱 과매도 골든</t>
+          <t>RSI 과매도 | MACD 히스토그램 상승 | 볼린저 하단 반등</t>
         </is>
       </c>
       <c r="L31" s="3" t="inlineStr">
@@ -2024,7 +2024,7 @@
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="8" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="6" customWidth="1" min="16" max="16"/>
     <col width="17" customWidth="1" min="17" max="17"/>
     <col width="17" customWidth="1" min="18" max="18"/>
@@ -2137,10 +2137,10 @@
         <v>47950</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>43850</v>
+        <v>44800</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>-5.09</v>
+        <v>-3.03</v>
       </c>
       <c r="J2" s="6" t="inlineStr">
         <is>
@@ -2159,10 +2159,10 @@
         <v>95900</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>87700</v>
+        <v>89600</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>-8200</v>
+        <v>-6300</v>
       </c>
       <c r="P2" s="3" t="n"/>
       <c r="Q2" s="3" t="n"/>
@@ -2195,10 +2195,10 @@
         <v>6630</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6420</v>
+        <v>6500</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>-3.46</v>
+        <v>-2.26</v>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
@@ -2217,10 +2217,10 @@
         <v>99450</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>96300</v>
+        <v>97500</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>-3150</v>
+        <v>-1950</v>
       </c>
       <c r="P3" s="3" t="n"/>
       <c r="Q3" s="3" t="n"/>
@@ -2253,10 +2253,10 @@
         <v>5050</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5260</v>
+        <v>5360</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>7.35</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="J4" s="7" t="inlineStr">
         <is>
@@ -2275,10 +2275,10 @@
         <v>95950</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>99940</v>
+        <v>101840</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3990</v>
+        <v>5890</v>
       </c>
       <c r="P4" s="3" t="n"/>
       <c r="Q4" s="3" t="n"/>
@@ -2311,10 +2311,10 @@
         <v>3225</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3235</v>
+        <v>3255</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.78</v>
+        <v>1.4</v>
       </c>
       <c r="J5" s="7" t="inlineStr">
         <is>
@@ -2333,10 +2333,10 @@
         <v>99975</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>100285</v>
+        <v>100905</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>310</v>
+        <v>930</v>
       </c>
       <c r="P5" s="3" t="n"/>
       <c r="Q5" s="3" t="n"/>
@@ -2369,10 +2369,10 @@
         <v>58200</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>58600</v>
+        <v>58700</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.86</v>
+        <v>1.03</v>
       </c>
       <c r="J6" s="7" t="inlineStr">
         <is>
@@ -2391,10 +2391,10 @@
         <v>58200</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>58600</v>
+        <v>58700</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="P6" s="3" t="n"/>
       <c r="Q6" s="3" t="n"/>
@@ -2427,10 +2427,10 @@
         <v>9040</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>8580</v>
+        <v>8670</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>-5.09</v>
+        <v>-4.09</v>
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
@@ -2449,10 +2449,10 @@
         <v>99440</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>94380</v>
+        <v>95370</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>-5060</v>
+        <v>-4070</v>
       </c>
       <c r="P7" s="3" t="n"/>
       <c r="Q7" s="3" t="n"/>
@@ -2485,10 +2485,10 @@
         <v>3405</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>3020</v>
+        <v>3095</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>-9.31</v>
+        <v>-7.06</v>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
@@ -2507,10 +2507,10 @@
         <v>98745</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>87580</v>
+        <v>89755</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>-11165</v>
+        <v>-8990</v>
       </c>
       <c r="P8" s="3" t="n"/>
       <c r="Q8" s="3" t="n"/>
@@ -2543,10 +2543,10 @@
         <v>35000</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>33200</v>
+        <v>33350</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>-3.35</v>
+        <v>-2.91</v>
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
@@ -2565,10 +2565,10 @@
         <v>70000</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>66400</v>
+        <v>66700</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="P9" s="3" t="n"/>
       <c r="Q9" s="3" t="n"/>
@@ -2601,10 +2601,10 @@
         <v>13750</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>13310</v>
+        <v>13360</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>-1.92</v>
+        <v>-1.55</v>
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
@@ -2623,10 +2623,10 @@
         <v>96250</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>93170</v>
+        <v>93520</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>-3080</v>
+        <v>-2730</v>
       </c>
       <c r="P10" s="3" t="n"/>
       <c r="Q10" s="3" t="n"/>
@@ -2659,10 +2659,10 @@
         <v>10660</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>10930</v>
+        <v>10900</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>2.92</v>
+        <v>2.64</v>
       </c>
       <c r="J11" s="7" t="inlineStr">
         <is>
@@ -2681,10 +2681,10 @@
         <v>95940</v>
       </c>
       <c r="N11" s="4" t="n">
-        <v>98370</v>
+        <v>98100</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2430</v>
+        <v>2160</v>
       </c>
       <c r="P11" s="3" t="n"/>
       <c r="Q11" s="3" t="n"/>
@@ -2717,10 +2717,10 @@
         <v>18680</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>21800</v>
+        <v>22050</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>18.03</v>
+        <v>19.38</v>
       </c>
       <c r="J12" s="7" t="inlineStr">
         <is>
@@ -2739,10 +2739,10 @@
         <v>93400</v>
       </c>
       <c r="N12" s="4" t="n">
-        <v>109000</v>
+        <v>110250</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>15600</v>
+        <v>16850</v>
       </c>
       <c r="P12" s="3" t="n"/>
       <c r="Q12" s="3" t="n"/>
@@ -2775,10 +2775,10 @@
         <v>4300</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>4270</v>
+        <v>4210</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>-0.58</v>
+        <v>-1.98</v>
       </c>
       <c r="J13" s="6" t="inlineStr">
         <is>
@@ -2797,10 +2797,10 @@
         <v>98900</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>98210</v>
+        <v>96830</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>-690</v>
+        <v>-2070</v>
       </c>
       <c r="P13" s="3" t="n"/>
       <c r="Q13" s="3" t="n"/>
@@ -2891,10 +2891,10 @@
         <v>8990</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>9180</v>
+        <v>9200</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>5.15</v>
+        <v>5.38</v>
       </c>
       <c r="J15" s="7" t="inlineStr">
         <is>
@@ -2913,10 +2913,10 @@
         <v>98890</v>
       </c>
       <c r="N15" s="4" t="n">
-        <v>100980</v>
+        <v>101200</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>2090</v>
+        <v>2310</v>
       </c>
       <c r="P15" s="3" t="n"/>
       <c r="Q15" s="3" t="n"/>
@@ -2949,10 +2949,10 @@
         <v>136000</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>128450</v>
+        <v>129300</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>-3.57</v>
+        <v>-2.93</v>
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
@@ -2971,10 +2971,10 @@
         <v>136000</v>
       </c>
       <c r="N16" s="4" t="n">
-        <v>128450</v>
+        <v>129300</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-7550</v>
+        <v>-6700</v>
       </c>
       <c r="P16" s="3" t="n"/>
       <c r="Q16" s="3" t="n"/>
@@ -3007,10 +3007,10 @@
         <v>84400</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>86700</v>
+        <v>87100</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>3.21</v>
+        <v>3.69</v>
       </c>
       <c r="J17" s="7" t="inlineStr">
         <is>
@@ -3029,10 +3029,10 @@
         <v>84400</v>
       </c>
       <c r="N17" s="4" t="n">
-        <v>86700</v>
+        <v>87100</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="P17" s="3" t="n"/>
       <c r="Q17" s="3" t="n"/>
@@ -3065,10 +3065,10 @@
         <v>101000</v>
       </c>
       <c r="H18" s="4" t="n">
-        <v>99800</v>
+        <v>100200</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="J18" s="6" t="inlineStr">
         <is>
@@ -3087,10 +3087,10 @@
         <v>101000</v>
       </c>
       <c r="N18" s="4" t="n">
-        <v>99800</v>
+        <v>100200</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>-1200</v>
+        <v>-800</v>
       </c>
       <c r="P18" s="3" t="n"/>
       <c r="Q18" s="3" t="n"/>
@@ -3123,10 +3123,10 @@
         <v>230000</v>
       </c>
       <c r="H19" s="4" t="n">
-        <v>229000</v>
+        <v>231000</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>0.22</v>
+        <v>1.09</v>
       </c>
       <c r="J19" s="7" t="inlineStr">
         <is>
@@ -3145,10 +3145,10 @@
         <v>230000</v>
       </c>
       <c r="N19" s="4" t="n">
-        <v>229000</v>
+        <v>231000</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
       <c r="P19" s="3" t="n"/>
       <c r="Q19" s="3" t="n"/>
@@ -3181,10 +3181,10 @@
         <v>37700</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>39900</v>
+        <v>39700</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>3.91</v>
+        <v>3.39</v>
       </c>
       <c r="J20" s="7" t="inlineStr">
         <is>
@@ -3203,10 +3203,10 @@
         <v>75400</v>
       </c>
       <c r="N20" s="4" t="n">
-        <v>79800</v>
+        <v>79400</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>4400</v>
+        <v>4000</v>
       </c>
       <c r="P20" s="3" t="n"/>
       <c r="Q20" s="3" t="n"/>
@@ -3239,14 +3239,14 @@
         <v>28000</v>
       </c>
       <c r="H21" s="4" t="n">
-        <v>28200</v>
+        <v>28000</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>➖ 보합</t>
+        <v>-0.71</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr">
+        <is>
+          <t>❌ 손실</t>
         </is>
       </c>
       <c r="K21" s="3" t="inlineStr">
@@ -3261,10 +3261,10 @@
         <v>84000</v>
       </c>
       <c r="N21" s="4" t="n">
-        <v>84600</v>
+        <v>84000</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3" t="n"/>
       <c r="Q21" s="3" t="n"/>
@@ -3297,10 +3297,10 @@
         <v>88300</v>
       </c>
       <c r="H22" s="4" t="n">
-        <v>86600</v>
+        <v>86900</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>-3.56</v>
+        <v>-3.23</v>
       </c>
       <c r="J22" s="6" t="inlineStr">
         <is>
@@ -3319,10 +3319,10 @@
         <v>88300</v>
       </c>
       <c r="N22" s="4" t="n">
-        <v>86600</v>
+        <v>86900</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>-1700</v>
+        <v>-1400</v>
       </c>
       <c r="P22" s="3" t="n"/>
       <c r="Q22" s="3" t="n"/>
@@ -3355,10 +3355,10 @@
         <v>29350</v>
       </c>
       <c r="H23" s="4" t="n">
-        <v>27000</v>
+        <v>26750</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.26</v>
+        <v>-6.14</v>
       </c>
       <c r="J23" s="6" t="inlineStr">
         <is>
@@ -3377,10 +3377,10 @@
         <v>88050</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>81000</v>
+        <v>80250</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>-7050</v>
+        <v>-7800</v>
       </c>
       <c r="P23" s="3" t="n"/>
       <c r="Q23" s="3" t="n"/>
@@ -3413,10 +3413,10 @@
         <v>96100</v>
       </c>
       <c r="H24" s="4" t="n">
-        <v>94000</v>
+        <v>95000</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="J24" s="7" t="inlineStr">
         <is>
@@ -3435,10 +3435,10 @@
         <v>96100</v>
       </c>
       <c r="N24" s="4" t="n">
-        <v>94000</v>
+        <v>95000</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>-2100</v>
+        <v>-1100</v>
       </c>
       <c r="P24" s="3" t="n"/>
       <c r="Q24" s="3" t="n"/>
@@ -3471,10 +3471,10 @@
         <v>52200</v>
       </c>
       <c r="H25" s="4" t="n">
-        <v>49150</v>
+        <v>49100</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>-3.82</v>
+        <v>-3.91</v>
       </c>
       <c r="J25" s="6" t="inlineStr">
         <is>
@@ -3493,10 +3493,10 @@
         <v>52200</v>
       </c>
       <c r="N25" s="4" t="n">
-        <v>49150</v>
+        <v>49100</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>-3050</v>
+        <v>-3100</v>
       </c>
       <c r="P25" s="3" t="n"/>
       <c r="Q25" s="3" t="n"/>
@@ -3529,10 +3529,10 @@
         <v>23000</v>
       </c>
       <c r="H26" s="4" t="n">
-        <v>25850</v>
+        <v>26100</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>13.38</v>
+        <v>14.47</v>
       </c>
       <c r="J26" s="7" t="inlineStr">
         <is>
@@ -3551,10 +3551,10 @@
         <v>92000</v>
       </c>
       <c r="N26" s="4" t="n">
-        <v>103400</v>
+        <v>104400</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>11400</v>
+        <v>12400</v>
       </c>
       <c r="P26" s="3" t="n"/>
       <c r="Q26" s="3" t="n"/>
@@ -3587,10 +3587,10 @@
         <v>15280</v>
       </c>
       <c r="H27" s="4" t="n">
-        <v>14930</v>
+        <v>15030</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>-2.42</v>
+        <v>-1.76</v>
       </c>
       <c r="J27" s="6" t="inlineStr">
         <is>
@@ -3609,10 +3609,10 @@
         <v>91680</v>
       </c>
       <c r="N27" s="4" t="n">
-        <v>89580</v>
+        <v>90180</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>-2100</v>
+        <v>-1500</v>
       </c>
       <c r="P27" s="3" t="n"/>
       <c r="Q27" s="3" t="n"/>
@@ -3645,10 +3645,10 @@
         <v>13350</v>
       </c>
       <c r="H28" s="4" t="n">
-        <v>13210</v>
+        <v>13240</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>0.84</v>
+        <v>1.07</v>
       </c>
       <c r="J28" s="7" t="inlineStr">
         <is>
@@ -3667,10 +3667,10 @@
         <v>93450</v>
       </c>
       <c r="N28" s="4" t="n">
-        <v>92470</v>
+        <v>92680</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>-980</v>
+        <v>-770</v>
       </c>
       <c r="P28" s="3" t="n"/>
       <c r="Q28" s="3" t="n"/>
@@ -3703,10 +3703,10 @@
         <v>26350</v>
       </c>
       <c r="H29" s="4" t="n">
-        <v>25900</v>
+        <v>25800</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.15</v>
+        <v>-1.53</v>
       </c>
       <c r="J29" s="6" t="inlineStr">
         <is>
@@ -3725,10 +3725,10 @@
         <v>79050</v>
       </c>
       <c r="N29" s="4" t="n">
-        <v>77700</v>
+        <v>77400</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>-1350</v>
+        <v>-1650</v>
       </c>
       <c r="P29" s="3" t="n"/>
       <c r="Q29" s="3" t="n"/>
@@ -3761,10 +3761,10 @@
         <v>67500</v>
       </c>
       <c r="H30" s="4" t="n">
-        <v>71400</v>
+        <v>72500</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>11.74</v>
+        <v>13.46</v>
       </c>
       <c r="J30" s="7" t="inlineStr">
         <is>
@@ -3783,10 +3783,10 @@
         <v>67500</v>
       </c>
       <c r="N30" s="4" t="n">
-        <v>71400</v>
+        <v>72500</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>3900</v>
+        <v>5000</v>
       </c>
       <c r="P30" s="3" t="n"/>
       <c r="Q30" s="3" t="n"/>
@@ -3819,10 +3819,10 @@
         <v>29750</v>
       </c>
       <c r="H31" s="4" t="n">
-        <v>28550</v>
+        <v>28450</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>-5.62</v>
+        <v>-5.95</v>
       </c>
       <c r="J31" s="6" t="inlineStr">
         <is>
@@ -3841,10 +3841,10 @@
         <v>89250</v>
       </c>
       <c r="N31" s="4" t="n">
-        <v>85650</v>
+        <v>85350</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>-3600</v>
+        <v>-3900</v>
       </c>
       <c r="P31" s="3" t="n"/>
       <c r="Q31" s="3" t="n"/>
@@ -4022,7 +4022,7 @@
       </c>
       <c r="R38" s="3" t="inlineStr">
         <is>
-          <t>2,826,885원</t>
+          <t>2,841,700원</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="R39" s="3" t="inlineStr">
         <is>
-          <t>-22,285원</t>
+          <t>-7,470원</t>
         </is>
       </c>
     </row>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="R40" s="3" t="inlineStr">
         <is>
-          <t>-0.78%</t>
+          <t>-0.26%</t>
         </is>
       </c>
     </row>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="R43" s="3" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>0.95%</t>
         </is>
       </c>
     </row>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="R44" s="3" t="inlineStr">
         <is>
-          <t>18.03%</t>
+          <t>19.38%</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="R45" s="3" t="inlineStr">
         <is>
-          <t>-9.31%</t>
+          <t>-7.06%</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="R47" s="3" t="inlineStr">
         <is>
-          <t>16개</t>
+          <t>17개</t>
         </is>
       </c>
     </row>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="R51" s="3" t="inlineStr">
         <is>
-          <t>우림피티에스 (18.03%)</t>
+          <t>우림피티에스 (19.38%)</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="R52" s="3" t="inlineStr">
         <is>
-          <t>대한광통신 (-9.31%)</t>
+          <t>대한광통신 (-7.06%)</t>
         </is>
       </c>
     </row>
